--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Ranking" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,26 +30,6 @@
     <font>
       <name val="Bodoni MT"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Bodoni MT"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Bodoni MT"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Bodoni MT"/>
-      <family val="1"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
     </font>
@@ -62,13 +42,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Bahnschrift SemiBold"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Bahnschrift SemiBold"/>
+      <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -115,52 +109,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,584 +536,686 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col width="10.85546875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="125.140625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="165.5703125" customWidth="1" min="3" max="3"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="10.85546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="125.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="165.5703125" customWidth="1" style="13" min="3" max="3"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="16.5" customHeight="1" s="13">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>número</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>perguntas</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>alternativas</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>resposta</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>dificuldade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="11" t="n">
+    <row r="2" ht="15" customHeight="1" s="13">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Atualmente (2019) qual é o maior artilheiro da história das Copas do Mundo?</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="18" t="inlineStr">
         <is>
           <t>A:Pelé/B:Ronaldo fenomeno/C:Klose</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
+        <is>
+          <t>1ºC</t>
+        </is>
+      </c>
+      <c r="E2" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="11" t="n">
+    <row r="3" ht="15" customHeight="1" s="13">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>Qual seleção ganhou a Copa do Mundo de 1966?</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>A:Brasil/B:Italia/C:Inglaterra</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>2ºC</t>
+        </is>
+      </c>
+      <c r="E3" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Qual jogador fez mais gols em uma única edição de Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="18" t="inlineStr">
         <is>
           <t>A:Just Fontaine/B:CR7/C:Pelé</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>3ºA</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11" t="n">
+    <row r="5" ht="15" customHeight="1" s="13">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Quais foram os dois países africanos que chegaram mais longe na Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="18" t="inlineStr">
         <is>
           <t>A:Egito e Nigéria/B:Nigéria e Gana./C:Senegal e Gana</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t>4ºC</t>
+        </is>
+      </c>
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
+      <c r="F5" s="14" t="n"/>
+      <c r="G5" s="15" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Quais foram os dois anos em que o Brasil sediou a Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="18" t="inlineStr">
         <is>
           <t>A:1994 E 2002/B:2014 E 2014/C:1950 E 2014</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="D6" s="18" t="inlineStr">
+        <is>
+          <t>5ºC</t>
+        </is>
+      </c>
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
+      <c r="F6" s="14" t="n"/>
+      <c r="G6" s="15" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Quais foram os três jogadores que mais foram convocados para a Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>A:PÉLE, RONALDINHO,CR7/B:PELÉ, MARADONA, ROMÁRIO/C:KAKÁ, CAFU, CR7</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t>6ºB</t>
+        </is>
+      </c>
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="15" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>Qual é o único jogador (2019) que já participou de 3 finais de Copa do Mundo seguidas?</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="18" t="inlineStr">
         <is>
           <t>A:CAFU/B:DANIEL ALVES/C:PELÉ</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t>7ºB</t>
+        </is>
+      </c>
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="11" t="n">
+    <row r="9" ht="31.5" customHeight="1" s="13">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>Qual país ganhou a primeira Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="18" t="inlineStr">
         <is>
           <t>A:URUGUAI/B:ESPANHA/C:ITALIA</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E9" s="13" t="inlineStr">
+      <c r="D9" s="18" t="inlineStr">
+        <is>
+          <t>8ºA</t>
+        </is>
+      </c>
+      <c r="E9" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>Quais são os dois países que até hoje (2019) que já ganharam o bi-campeonato consecutivo da Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="18" t="inlineStr">
         <is>
           <t>A:BRASIL, ITALIA/B:INGLATERRA, ARGENTINA/C:PORTUGAL, ITALIA</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="D10" s="18" t="inlineStr">
+        <is>
+          <t>9ºA</t>
+        </is>
+      </c>
+      <c r="E10" s="18" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="n">
+    <row r="11" ht="15" customHeight="1" s="13">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>Qual nome do mascote da copa de 2018</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
+        <is>
+          <t>A:ZAKUMI/B:BRAZUKA/C:ZABIVAKA</t>
+        </is>
+      </c>
+      <c r="D11" s="18" t="inlineStr">
+        <is>
+          <t>10ºC</t>
+        </is>
+      </c>
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>dificil</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="13">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Qual nome da bola da copa de 2018</t>
+        </is>
+      </c>
+      <c r="C12" s="18" t="inlineStr">
+        <is>
+          <t>A:TELSTAR/B:JABULANI/C:QUESTRA</t>
+        </is>
+      </c>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t>11ºA</t>
+        </is>
+      </c>
+      <c r="E12" s="18" t="inlineStr">
+        <is>
+          <t>dificil</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="13">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Fora os estreantes, qual é a seleção que há mais tempo não se classificava para uma Copa?</t>
+        </is>
+      </c>
+      <c r="C13" s="18" t="inlineStr">
+        <is>
+          <t>A:PERU/B:CHILE/C:ITALIA</t>
+        </is>
+      </c>
+      <c r="D13" s="18" t="inlineStr">
+        <is>
+          <t>12ºA</t>
+        </is>
+      </c>
+      <c r="E13" s="18" t="inlineStr">
+        <is>
+          <t>dificil</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="13">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Quantos paises jogam uma copa do mundo ?</t>
+        </is>
+      </c>
+      <c r="C14" s="18" t="inlineStr">
+        <is>
+          <t>A:16/B:32/C:24</t>
+        </is>
+      </c>
+      <c r="D14" s="18" t="inlineStr">
+        <is>
+          <t>13ºB</t>
+        </is>
+      </c>
+      <c r="E14" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Com quem a Alemanha jogou na final da Copa do Mundo de 2014?</t>
+        </is>
+      </c>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>A:ARGENTINA/B:BRASIL/C:BELGICA</t>
+        </is>
+      </c>
+      <c r="D15" s="18" t="inlineStr">
+        <is>
+          <t>14ºA</t>
+        </is>
+      </c>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1" s="13">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Qual foi o país sede da Copa do Mundo de 2010?</t>
+        </is>
+      </c>
+      <c r="C16" s="18" t="inlineStr">
+        <is>
+          <t>A:BRASIL/B:AFRICA DO SUL/C:ITALIA</t>
+        </is>
+      </c>
+      <c r="D16" s="18" t="inlineStr">
+        <is>
+          <t>15ºB</t>
+        </is>
+      </c>
+      <c r="E16" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="31.5" customHeight="1" s="13">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Qual o ano que o Brasil sediou sua ultima copa no País</t>
+        </is>
+      </c>
+      <c r="C17" s="18" t="inlineStr">
+        <is>
+          <t>A:2010/B:2014/C:2018</t>
+        </is>
+      </c>
+      <c r="D17" s="18" t="inlineStr">
+        <is>
+          <t>16ºB</t>
+        </is>
+      </c>
+      <c r="E17" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="13">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>O Brasil foi eliminado para quem na copa do mundo de 2018</t>
+        </is>
+      </c>
+      <c r="C18" s="18" t="inlineStr">
+        <is>
+          <t>A:ARGENTINA/B:BELGICA/C:ALEMANHA</t>
+        </is>
+      </c>
+      <c r="D18" s="18" t="inlineStr">
+        <is>
+          <t>17ºB</t>
+        </is>
+      </c>
+      <c r="E18" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="13">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qual foi a copa do mundo que o Brasil levou de 7x1 </t>
+        </is>
+      </c>
+      <c r="C19" s="18" t="inlineStr">
+        <is>
+          <t>A:2010/B:2018/C:2014</t>
+        </is>
+      </c>
+      <c r="D19" s="18" t="inlineStr">
+        <is>
+          <t>18ºC</t>
+        </is>
+      </c>
+      <c r="E19" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="13">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Qual Pais além do Brasil tem 5 copas do mundo ?</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="inlineStr">
+        <is>
+          <t>A:ALEMANHA/B:ITALIA/C:NENHUM</t>
+        </is>
+      </c>
+      <c r="D20" s="18" t="inlineStr">
+        <is>
+          <t>19ºC</t>
+        </is>
+      </c>
+      <c r="E20" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="13">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>Qual foi o País sede da copa do Mundo de 2018?</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="inlineStr">
+        <is>
+          <t>A:AFRICA DO SUL/B:FRANÇA/C:RUSSIA</t>
+        </is>
+      </c>
+      <c r="D21" s="18" t="inlineStr">
+        <is>
+          <t>20ºC</t>
+        </is>
+      </c>
+      <c r="E21" s="18" t="inlineStr">
+        <is>
+          <t>fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="13">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
         <is>
           <t>Qual é o atual (2019) campeão mundial?</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C22" s="18" t="inlineStr">
         <is>
           <t>A:FRANÇA/B:BRASIL/C:ESPANHA</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="D22" s="18" t="inlineStr">
+        <is>
+          <t>21ºA</t>
+        </is>
+      </c>
+      <c r="E22" s="18" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="F22" s="15" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="13">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="inlineStr">
         <is>
           <t>Qual foi o jogador que mais venceu a Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C23" s="19" t="inlineStr">
         <is>
           <t>A:MARADONA/B:PELÉ/C:KLOSE</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E12" s="13" t="inlineStr">
+      <c r="D23" s="18" t="inlineStr">
+        <is>
+          <t>22ºB</t>
+        </is>
+      </c>
+      <c r="E23" s="18" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="F23" s="15" t="n"/>
+    </row>
+    <row r="24" ht="31.5" customHeight="1" s="13">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="inlineStr">
         <is>
           <t>Quem mais ganhou a copa do mundo ?</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
+      <c r="C24" s="19" t="inlineStr">
         <is>
           <t>A:ALEMANHA/B:ITALIA/C:BRASIL</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E13" s="13" t="inlineStr">
+      <c r="D24" s="18" t="inlineStr">
+        <is>
+          <t>23ºC</t>
+        </is>
+      </c>
+      <c r="E24" s="18" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t>Quantos paises jogam uma copa do mundo ?</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>A:16/B:32/C:24</t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="F24" s="15" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="13">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Qual adversario o Brasil mais enfrentou em copas</t>
+        </is>
+      </c>
+      <c r="C25" s="18" t="inlineStr">
+        <is>
+          <t>A:FRANÇA/B:SUECIA/C:ESPANHA</t>
+        </is>
+      </c>
+      <c r="D25" s="18" t="inlineStr">
+        <is>
+          <t>24ºB</t>
+        </is>
+      </c>
+      <c r="E25" s="18" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="inlineStr">
-        <is>
-          <t>Com quem a Alemanha jogou na final da Copa do Mundo de 2014?</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>A:ARGENTINA/B:BRASIL/C:BELGICA</t>
-        </is>
-      </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>Contabilizando 2018, qual é o confronto mais repetido em primeiras fases?</t>
+        </is>
+      </c>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>A:BRASIL X SUECIA/B: PORTUGAL X INGLATERRA/C: ARGENTINA X NIGÉRIA</t>
+        </is>
+      </c>
+      <c r="D26" s="18" t="inlineStr">
+        <is>
+          <t>25ºC</t>
+        </is>
+      </c>
+      <c r="E26" s="18" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="inlineStr">
-        <is>
-          <t>Qual foi o país sede da Copa do Mundo de 2010?</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="inlineStr">
-        <is>
-          <t>A:BRASIL/B:AFRICA DO SUL/C:ITALIA</t>
-        </is>
-      </c>
-      <c r="D16" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>fácil</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="inlineStr">
-        <is>
-          <t>Qual o ano que o Brasil sediou sua ultima copa no País</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>A:2010/B:2014/C:2018</t>
-        </is>
-      </c>
-      <c r="D17" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>fácil</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="inlineStr">
-        <is>
-          <t>O Brasil foi eliminado para quem na copa do mundo de 2018</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>A:ARGENTINA/B:BELGICA/C:ALEMANHA</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>fácil</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Qual foi a copa do mundo que o Brasil levou de 7x1 </t>
-        </is>
-      </c>
-      <c r="C19" s="13" t="inlineStr">
-        <is>
-          <t>A:2010/B:2018/C:2014</t>
-        </is>
-      </c>
-      <c r="D19" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E19" s="13" t="inlineStr">
-        <is>
-          <t>fácil</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="inlineStr">
-        <is>
-          <t>Qual Pais além do Brasil tem 5 copas do mundo ?</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>A:ALEMANHA/B:ITALIA/C:NENHUM</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>fácil</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="inlineStr">
-        <is>
-          <t>Qual foi o País sede da copa do Mundo de 2018?</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>A:AFRICA DO SUL/B:FRANÇA/C:RUSSIA</t>
-        </is>
-      </c>
-      <c r="D21" s="13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>fácil</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="n"/>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="n"/>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="8" t="n"/>
-      <c r="D23" s="8" t="n"/>
-      <c r="E23" s="8" t="n"/>
-    </row>
-    <row r="24" ht="31.5" customHeight="1">
-      <c r="A24" s="10" t="n"/>
-      <c r="B24" s="9" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="n"/>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="8" t="n"/>
-      <c r="E25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="8" t="n"/>
-      <c r="E26" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
@@ -1137,7 +1237,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="13" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1199,10 +1299,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1252,6 +1352,18 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>jorginda12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Xande</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>xande123</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1381,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" style="13" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1317,11 +1429,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jogador1</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -1332,11 +1444,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jogador2</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1347,11 +1459,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1362,11 +1474,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jogador3</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1377,11 +1489,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jogador4</t>
+          <t>Jogador1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1392,11 +1504,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jogador5</t>
+          <t>Jogador2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1407,11 +1519,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jogador6</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1422,11 +1534,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jogador7</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1437,15 +1549,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Deus</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="5" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11º</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>jogador7</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" state="visible" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -130,18 +130,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -538,7 +531,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -546,14 +539,14 @@
   <cols>
     <col width="10.85546875" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
     <col width="125.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="165.5703125" customWidth="1" style="13" min="3" max="3"/>
-    <col width="19.85546875" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
+    <col width="165.5703125" customWidth="1" style="10" min="3" max="3"/>
+    <col width="19.85546875" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="10" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="13">
+    <row r="1" ht="16.5" customHeight="1" s="10">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>número</t>
@@ -580,7 +573,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="13">
+    <row r="2" ht="15" customHeight="1" s="10">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -589,23 +582,23 @@
           <t>Atualmente (2019) qual é o maior artilheiro da história das Copas do Mundo?</t>
         </is>
       </c>
-      <c r="C2" s="18" t="inlineStr">
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t>A:Pelé/B:Ronaldo fenomeno/C:Klose</t>
         </is>
       </c>
-      <c r="D2" s="18" t="inlineStr">
+      <c r="D2" s="15" t="inlineStr">
         <is>
           <t>1ºC</t>
         </is>
       </c>
-      <c r="E2" s="18" t="inlineStr">
+      <c r="E2" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="13">
+    <row r="3" ht="15" customHeight="1" s="10">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
@@ -614,17 +607,17 @@
           <t>Qual seleção ganhou a Copa do Mundo de 1966?</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>A:Brasil/B:Italia/C:Inglaterra</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>2ºC</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
@@ -634,153 +627,153 @@
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Qual jogador fez mais gols em uma única edição de Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>A:Just Fontaine/B:CR7/C:Pelé</t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
         <is>
           <t>3ºA</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="13">
+    <row r="5" ht="15" customHeight="1" s="10">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Quais foram os dois países africanos que chegaram mais longe na Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>A:Egito e Nigéria/B:Nigéria e Gana./C:Senegal e Gana</t>
         </is>
       </c>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>4ºC</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="15" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="12" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>Quais foram os dois anos em que o Brasil sediou a Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>A:1994 E 2002/B:2014 E 2014/C:1950 E 2014</t>
         </is>
       </c>
-      <c r="D6" s="18" t="inlineStr">
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>5ºC</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="15" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="12" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>Quais foram os três jogadores que mais foram convocados para a Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>A:PÉLE, RONALDINHO,CR7/B:PELÉ, MARADONA, ROMÁRIO/C:KAKÁ, CAFU, CR7</t>
         </is>
       </c>
-      <c r="D7" s="18" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>6ºB</t>
         </is>
       </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
-      <c r="F7" s="16" t="n"/>
-      <c r="G7" s="15" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="12" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>Qual é o único jogador (2019) que já participou de 3 finais de Copa do Mundo seguidas?</t>
         </is>
       </c>
-      <c r="C8" s="18" t="inlineStr">
+      <c r="C8" s="15" t="inlineStr">
         <is>
           <t>A:CAFU/B:DANIEL ALVES/C:PELÉ</t>
         </is>
       </c>
-      <c r="D8" s="18" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>7ºB</t>
         </is>
       </c>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="31.5" customHeight="1" s="13">
+    <row r="9" ht="31.5" customHeight="1" s="10">
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>Qual país ganhou a primeira Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C9" s="18" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>A:URUGUAI/B:ESPANHA/C:ITALIA</t>
         </is>
       </c>
-      <c r="D9" s="18" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>8ºA</t>
         </is>
       </c>
-      <c r="E9" s="18" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
@@ -790,54 +783,54 @@
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>Quais são os dois países que até hoje (2019) que já ganharam o bi-campeonato consecutivo da Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C10" s="18" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>A:BRASIL, ITALIA/B:INGLATERRA, ARGENTINA/C:PORTUGAL, ITALIA</t>
         </is>
       </c>
-      <c r="D10" s="18" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>9ºA</t>
         </is>
       </c>
-      <c r="E10" s="18" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="13">
+    <row r="11" ht="15" customHeight="1" s="10">
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Qual nome do mascote da copa de 2018</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>A:ZAKUMI/B:BRAZUKA/C:ZABIVAKA</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>10ºC</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
-      <c r="F11" s="15" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="13">
+      <c r="F11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="10">
       <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
@@ -846,50 +839,50 @@
           <t>Qual nome da bola da copa de 2018</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C12" s="15" t="inlineStr">
         <is>
           <t>A:TELSTAR/B:JABULANI/C:QUESTRA</t>
         </is>
       </c>
-      <c r="D12" s="18" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>11ºA</t>
         </is>
       </c>
-      <c r="E12" s="18" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
-      <c r="F12" s="15" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="13">
+      <c r="F12" s="12" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="10">
       <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Fora os estreantes, qual é a seleção que há mais tempo não se classificava para uma Copa?</t>
         </is>
       </c>
-      <c r="C13" s="18" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>A:PERU/B:CHILE/C:ITALIA</t>
         </is>
       </c>
-      <c r="D13" s="18" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>12ºA</t>
         </is>
       </c>
-      <c r="E13" s="18" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>dificil</t>
         </is>
       </c>
-      <c r="F13" s="15" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="13">
+      <c r="F13" s="12" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="10">
       <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
@@ -898,17 +891,17 @@
           <t>Quantos paises jogam uma copa do mundo ?</t>
         </is>
       </c>
-      <c r="C14" s="18" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>A:16/B:32/C:24</t>
         </is>
       </c>
-      <c r="D14" s="18" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>13ºB</t>
         </is>
       </c>
-      <c r="E14" s="18" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
@@ -918,53 +911,53 @@
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>Com quem a Alemanha jogou na final da Copa do Mundo de 2014?</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
+      <c r="C15" s="15" t="inlineStr">
         <is>
           <t>A:ARGENTINA/B:BRASIL/C:BELGICA</t>
         </is>
       </c>
-      <c r="D15" s="18" t="inlineStr">
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>14ºA</t>
         </is>
       </c>
-      <c r="E15" s="18" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="31.5" customHeight="1" s="13">
+    <row r="16" ht="31.5" customHeight="1" s="10">
       <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>Qual foi o país sede da Copa do Mundo de 2010?</t>
         </is>
       </c>
-      <c r="C16" s="18" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>A:BRASIL/B:AFRICA DO SUL/C:ITALIA</t>
         </is>
       </c>
-      <c r="D16" s="18" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>15ºB</t>
         </is>
       </c>
-      <c r="E16" s="18" t="inlineStr">
+      <c r="E16" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="31.5" customHeight="1" s="13">
+    <row r="17" ht="31.5" customHeight="1" s="10">
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
@@ -973,201 +966,201 @@
           <t>Qual o ano que o Brasil sediou sua ultima copa no País</t>
         </is>
       </c>
-      <c r="C17" s="18" t="inlineStr">
+      <c r="C17" s="15" t="inlineStr">
         <is>
           <t>A:2010/B:2014/C:2018</t>
         </is>
       </c>
-      <c r="D17" s="18" t="inlineStr">
+      <c r="D17" s="15" t="inlineStr">
         <is>
           <t>16ºB</t>
         </is>
       </c>
-      <c r="E17" s="18" t="inlineStr">
+      <c r="E17" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="13">
+    <row r="18" ht="15" customHeight="1" s="10">
       <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>O Brasil foi eliminado para quem na copa do mundo de 2018</t>
         </is>
       </c>
-      <c r="C18" s="18" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>A:ARGENTINA/B:BELGICA/C:ALEMANHA</t>
         </is>
       </c>
-      <c r="D18" s="18" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>17ºB</t>
         </is>
       </c>
-      <c r="E18" s="18" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="13">
+    <row r="19" ht="15" customHeight="1" s="10">
       <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Qual foi a copa do mundo que o Brasil levou de 7x1 </t>
         </is>
       </c>
-      <c r="C19" s="18" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>A:2010/B:2018/C:2014</t>
         </is>
       </c>
-      <c r="D19" s="18" t="inlineStr">
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>18ºC</t>
         </is>
       </c>
-      <c r="E19" s="18" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="13">
+    <row r="20" ht="15" customHeight="1" s="10">
       <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Qual Pais além do Brasil tem 5 copas do mundo ?</t>
         </is>
       </c>
-      <c r="C20" s="18" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr">
         <is>
           <t>A:ALEMANHA/B:ITALIA/C:NENHUM</t>
         </is>
       </c>
-      <c r="D20" s="18" t="inlineStr">
+      <c r="D20" s="15" t="inlineStr">
         <is>
           <t>19ºC</t>
         </is>
       </c>
-      <c r="E20" s="18" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="13">
+    <row r="21" ht="15" customHeight="1" s="10">
       <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Qual foi o País sede da copa do Mundo de 2018?</t>
         </is>
       </c>
-      <c r="C21" s="18" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
         <is>
           <t>A:AFRICA DO SUL/B:FRANÇA/C:RUSSIA</t>
         </is>
       </c>
-      <c r="D21" s="18" t="inlineStr">
+      <c r="D21" s="15" t="inlineStr">
         <is>
           <t>20ºC</t>
         </is>
       </c>
-      <c r="E21" s="18" t="inlineStr">
+      <c r="E21" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="13">
+    <row r="22" ht="15" customHeight="1" s="10">
       <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="inlineStr">
+      <c r="B22" s="14" t="inlineStr">
         <is>
           <t>Qual é o atual (2019) campeão mundial?</t>
         </is>
       </c>
-      <c r="C22" s="18" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>A:FRANÇA/B:BRASIL/C:ESPANHA</t>
         </is>
       </c>
-      <c r="D22" s="18" t="inlineStr">
+      <c r="D22" s="15" t="inlineStr">
         <is>
           <t>21ºA</t>
         </is>
       </c>
-      <c r="E22" s="18" t="inlineStr">
+      <c r="E22" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-      <c r="F22" s="15" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="13">
+      <c r="F22" s="12" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="10">
       <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="inlineStr">
+      <c r="B23" s="14" t="inlineStr">
         <is>
           <t>Qual foi o jogador que mais venceu a Copa do Mundo?</t>
         </is>
       </c>
-      <c r="C23" s="19" t="inlineStr">
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>A:MARADONA/B:PELÉ/C:KLOSE</t>
         </is>
       </c>
-      <c r="D23" s="18" t="inlineStr">
+      <c r="D23" s="15" t="inlineStr">
         <is>
           <t>22ºB</t>
         </is>
       </c>
-      <c r="E23" s="18" t="inlineStr">
+      <c r="E23" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-      <c r="F23" s="15" t="n"/>
-    </row>
-    <row r="24" ht="31.5" customHeight="1" s="13">
+      <c r="F23" s="12" t="n"/>
+    </row>
+    <row r="24" ht="31.5" customHeight="1" s="10">
       <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="inlineStr">
+      <c r="B24" s="14" t="inlineStr">
         <is>
           <t>Quem mais ganhou a copa do mundo ?</t>
         </is>
       </c>
-      <c r="C24" s="19" t="inlineStr">
+      <c r="C24" s="16" t="inlineStr">
         <is>
           <t>A:ALEMANHA/B:ITALIA/C:BRASIL</t>
         </is>
       </c>
-      <c r="D24" s="18" t="inlineStr">
+      <c r="D24" s="15" t="inlineStr">
         <is>
           <t>23ºC</t>
         </is>
       </c>
-      <c r="E24" s="18" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
       </c>
-      <c r="F24" s="15" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="13">
+      <c r="F24" s="12" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="10">
       <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
@@ -1176,17 +1169,17 @@
           <t>Qual adversario o Brasil mais enfrentou em copas</t>
         </is>
       </c>
-      <c r="C25" s="18" t="inlineStr">
+      <c r="C25" s="15" t="inlineStr">
         <is>
           <t>A:FRANÇA/B:SUECIA/C:ESPANHA</t>
         </is>
       </c>
-      <c r="D25" s="18" t="inlineStr">
+      <c r="D25" s="15" t="inlineStr">
         <is>
           <t>24ºB</t>
         </is>
       </c>
-      <c r="E25" s="18" t="inlineStr">
+      <c r="E25" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
@@ -1201,17 +1194,17 @@
           <t>Contabilizando 2018, qual é o confronto mais repetido em primeiras fases?</t>
         </is>
       </c>
-      <c r="C26" s="20" t="inlineStr">
+      <c r="C26" s="17" t="inlineStr">
         <is>
           <t>A:BRASIL X SUECIA/B: PORTUGAL X INGLATERRA/C: ARGENTINA X NIGÉRIA</t>
         </is>
       </c>
-      <c r="D26" s="18" t="inlineStr">
+      <c r="D26" s="15" t="inlineStr">
         <is>
           <t>25ºC</t>
         </is>
       </c>
-      <c r="E26" s="18" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
         <is>
           <t>fácil</t>
         </is>
@@ -1237,7 +1230,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.85546875" bestFit="1" customWidth="1" style="13" min="1" max="1"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1299,10 +1292,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1334,34 +1327,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Xande</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>alexandre123</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jorgin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>jorginda12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Xande</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>xande123</t>
         </is>
@@ -1380,13 +1349,13 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11" customWidth="1" style="13" min="2" max="2"/>
+    <col width="11" customWidth="1" style="10" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1414,7 +1383,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jorgin</t>
+          <t>jogador1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -1429,11 +1398,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>jogador2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -1444,11 +1413,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>jogador3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -1459,11 +1428,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>jogador4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1474,7 +1443,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>jogador5</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1489,7 +1458,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jogador1</t>
+          <t>jogador6</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1504,11 +1473,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jogador2</t>
+          <t>jogador7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1519,11 +1488,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>jogador8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1534,11 +1503,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>jogador9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1549,11 +1518,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>jogador10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -1564,7 +1533,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jogador7</t>
+          <t>jogador11</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" state="visible" r:id="rId1"/>
@@ -531,8 +531,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="D2" s="15" t="inlineStr">
         <is>
-          <t>1ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" s="15" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="D3" s="15" t="inlineStr">
         <is>
-          <t>2ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" s="15" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t>3ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" s="15" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>4ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>5ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>6ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>7ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>8ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>9ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>10ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
-          <t>11ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" s="15" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>12ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>13ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="D15" s="15" t="inlineStr">
         <is>
-          <t>14ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E15" s="15" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>15ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>16ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>17ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>18ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="D20" s="15" t="inlineStr">
         <is>
-          <t>19ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" s="15" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>20ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D22" s="15" t="inlineStr">
         <is>
-          <t>21ºA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E22" s="15" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D23" s="15" t="inlineStr">
         <is>
-          <t>22ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" s="15" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D24" s="15" t="inlineStr">
         <is>
-          <t>23ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E24" s="15" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>24ºB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E25" s="15" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>25ºC</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1327,12 +1327,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Xande</t>
+          <t>Lari</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xande123</t>
+          <t>lari123</t>
         </is>
       </c>
     </row>
@@ -1349,8 +1349,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1503,11 +1503,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jogador9</t>
+          <t>Lari</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jogador10</t>
+          <t>jogador9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600048d8b9b78643/Área de Trabalho/Projeto do jogo/Quiz_Copa_do_Mundo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_CF041201F4E505A340A73BC4A14141EF577215DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B98C41-822E-4E0C-8DEE-EB1E0C4E6C91}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_240AE56AB6E807A340A73BCDB1477EA5777059FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B5F8E8-8979-4812-8B93-395AC4F932A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,9 @@
     <t>Admin3</t>
   </si>
   <si>
+    <t>Xande</t>
+  </si>
+  <si>
     <t>Ranking</t>
   </si>
   <si>
@@ -265,24 +268,24 @@
     <t>6º</t>
   </si>
   <si>
+    <t>jogador6</t>
+  </si>
+  <si>
     <t>7º</t>
   </si>
   <si>
-    <t>jogador6</t>
+    <t>jogador7</t>
   </si>
   <si>
     <t>8º</t>
   </si>
   <si>
-    <t>jogador7</t>
+    <t>jogador8</t>
   </si>
   <si>
     <t>9º</t>
   </si>
   <si>
-    <t>jogador8</t>
-  </si>
-  <si>
     <t>10º</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>jogador11</t>
-  </si>
-  <si>
-    <t>jogador10</t>
   </si>
 </sst>
 </file>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>8</v>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,21 +1314,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>170</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>160</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>140</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>130</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -1413,32 +1413,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
         <v>90</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3">
         <v>10</v>
